--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.012920-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Carroll.Spring.012920-1.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1059,12 +1059,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1399,12 +1399,12 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -1567,12 +1567,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1739,12 +1739,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2965,12 +2965,12 @@
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3431,12 +3431,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3981,12 +3981,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4359,12 +4359,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4993,12 +4993,12 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5539,12 +5539,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6295,12 +6295,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       <c r="H141" t="inlineStr"/>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6715,12 +6715,12 @@
       <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6757,12 +6757,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6925,12 +6925,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7513,12 +7513,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8647,12 +8647,12 @@
       <c r="H195" t="inlineStr"/>
       <c r="I195" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8773,12 +8773,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
